--- a/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,45 +451,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>epochs_gd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>epochs_qd</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>label</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_positives</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TP</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>TPm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>FPm</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>FPiou</t>
         </is>
@@ -511,7 +516,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -521,35 +526,40 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>28</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -571,7 +581,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -581,35 +591,40 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -631,7 +646,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -641,24 +656,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>0</t>
@@ -670,6 +685,11 @@
         </is>
       </c>
       <c r="L4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -691,7 +711,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -701,35 +721,40 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -751,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -761,27 +786,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -790,6 +815,11 @@
         </is>
       </c>
       <c r="L6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -811,7 +841,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -821,35 +851,40 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -871,7 +906,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -881,27 +916,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -910,6 +945,11 @@
         </is>
       </c>
       <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -931,7 +971,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -941,24 +981,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
@@ -970,6 +1010,11 @@
         </is>
       </c>
       <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -991,7 +1036,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1001,24 +1046,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>0</t>
@@ -1030,6 +1075,11 @@
         </is>
       </c>
       <c r="L10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1051,7 +1101,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1061,35 +1111,40 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1111,7 +1166,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1121,24 +1176,24 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>0</t>
@@ -1150,6 +1205,11 @@
         </is>
       </c>
       <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1171,7 +1231,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1181,35 +1241,40 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1241,35 +1306,40 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1291,7 +1361,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1301,35 +1371,40 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1351,7 +1426,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1361,35 +1436,40 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1411,7 +1491,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1421,35 +1501,40 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -1471,7 +1556,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1481,35 +1566,40 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1531,7 +1621,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1541,35 +1631,40 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -1591,34 +1686,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>0</t>
@@ -1630,6 +1725,11 @@
         </is>
       </c>
       <c r="L20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1651,45 +1751,50 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1711,34 +1816,34 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>0</t>
@@ -1750,6 +1855,11 @@
         </is>
       </c>
       <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1771,37 +1881,37 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1810,6 +1920,11 @@
         </is>
       </c>
       <c r="L23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1831,34 +1946,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
           <t>0</t>
@@ -1870,6 +1985,11 @@
         </is>
       </c>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1891,45 +2011,50 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1951,34 +2076,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>79</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
           <t>0</t>
@@ -1990,6 +2115,11 @@
         </is>
       </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2011,45 +2141,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2071,34 +2206,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
           <t>0</t>
@@ -2110,6 +2245,11 @@
         </is>
       </c>
       <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2131,45 +2271,50 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>82</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2191,34 +2336,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>101</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>0</t>
@@ -2230,6 +2375,11 @@
         </is>
       </c>
       <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2251,45 +2401,50 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>89</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2311,34 +2466,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
           <t>0</t>
@@ -2350,6 +2505,11 @@
         </is>
       </c>
       <c r="L32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2371,45 +2531,50 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>87</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2431,34 +2596,34 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
           <t>0</t>
@@ -2470,6 +2635,11 @@
         </is>
       </c>
       <c r="L34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2491,45 +2661,50 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2551,34 +2726,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>105</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>0</t>
@@ -2590,6 +2765,11 @@
         </is>
       </c>
       <c r="L36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2611,37 +2791,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>111</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2650,6 +2830,11 @@
         </is>
       </c>
       <c r="L37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2671,45 +2856,50 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>103</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2731,45 +2921,50 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2791,45 +2986,50 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2851,34 +3051,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
           <t>1</t>
@@ -2886,10 +3086,15 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2911,37 +3116,37 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2950,6 +3155,11 @@
         </is>
       </c>
       <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2971,34 +3181,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>1</t>
@@ -3006,10 +3216,15 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3031,45 +3246,50 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3091,45 +3311,50 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>75</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3151,45 +3376,50 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>94</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3211,45 +3441,50 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>88</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3271,45 +3506,50 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>98</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3331,45 +3571,50 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J49" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3391,45 +3636,50 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>93</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3451,45 +3701,50 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -3511,45 +3766,50 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>102</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3571,37 +3831,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3610,6 +3870,11 @@
         </is>
       </c>
       <c r="L53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3631,45 +3896,50 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>104</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3691,37 +3961,37 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>131</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>109</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3730,6 +4000,11 @@
         </is>
       </c>
       <c r="L55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3751,45 +4026,50 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3811,34 +4091,34 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J57" t="inlineStr">
         <is>
           <t>0</t>
@@ -3850,6 +4130,11 @@
         </is>
       </c>
       <c r="L57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3871,45 +4156,50 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>160</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3931,45 +4221,50 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3991,34 +4286,34 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J60" t="inlineStr">
         <is>
           <t>0</t>
@@ -4030,6 +4325,11 @@
         </is>
       </c>
       <c r="L60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4051,34 +4351,34 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>120</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J61" t="inlineStr">
         <is>
           <t>0</t>
@@ -4090,6 +4390,11 @@
         </is>
       </c>
       <c r="L61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4111,45 +4416,50 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>133</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4171,34 +4481,34 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J63" t="inlineStr">
         <is>
           <t>0</t>
@@ -4210,6 +4520,11 @@
         </is>
       </c>
       <c r="L63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4231,45 +4546,50 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -4291,37 +4611,37 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>107</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4330,6 +4650,11 @@
         </is>
       </c>
       <c r="L65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4351,45 +4676,50 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>157</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -4411,34 +4741,34 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J67" t="inlineStr">
         <is>
           <t>0</t>
@@ -4450,6 +4780,11 @@
         </is>
       </c>
       <c r="L67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -4471,45 +4806,50 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -4531,34 +4871,34 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="J69" t="inlineStr">
         <is>
           <t>0</t>
@@ -4570,6 +4910,11 @@
         </is>
       </c>
       <c r="L69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -4591,45 +4936,50 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -4651,45 +5001,50 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>108</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4711,37 +5066,37 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>169</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4750,6 +5105,11 @@
         </is>
       </c>
       <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -4771,45 +5131,50 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>135</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/yolov5_complete_metric_real_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1776,12 +1776,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2036,12 +2036,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2426,17 +2426,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2591,12 +2591,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2656,12 +2656,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2686,17 +2686,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2816,12 +2816,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2876,17 +2876,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3006,17 +3006,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3071,22 +3071,22 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3136,17 +3136,17 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>floor4</t>
+          <t>floor1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>71</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3306,12 +3306,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3336,27 +3336,27 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>83</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3401,27 +3401,27 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3501,12 +3501,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3566,12 +3566,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3726,17 +3726,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3791,12 +3791,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3921,27 +3921,27 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>64</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
     </row>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3986,17 +3986,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4016,17 +4016,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4046,17 +4046,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4081,17 +4081,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4111,22 +4111,22 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -4211,17 +4211,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_75</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>deep_doors_2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4241,24 +4241,24 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>0</t>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4276,17 +4276,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4306,17 +4306,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4341,17 +4341,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4371,17 +4371,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4436,32 +4436,32 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4501,22 +4501,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4526,7 +4526,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4566,32 +4566,32 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>7</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>138</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>chemistryfloor0</t>
+          <t>floor4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>deep_doors_2</t>
+          <t>gibson_deep_doors_2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4761,17 +4761,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QD_25</t>
+          <t>QD_15</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4896,17 +4896,17 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4931,12 +4931,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>QD_50</t>
+          <t>QD_25</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5026,12 +5026,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>QD_75</t>
+          <t>QD_50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gibson_deep_doors_2</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>160</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5126,55 +5126,1225 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>QD_75</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>gibson</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>gibson_deep_doors_2</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>QD_15</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
         <is>
           <t>135</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>QD_25</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>QD_50</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>chemistryfloor0</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>QD_75</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>gibson_deep_doors_2</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>119</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>4</t>
         </is>
